--- a/DataSource/DataSource - Emision AP Enlatada.xlsx
+++ b/DataSource/DataSource - Emision AP Enlatada.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D338C7E1-E5A5-44F4-8A3D-A34EAAB7A390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B0CD36-DF2C-4D92-A2FF-3BD5EB5841F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>Usuario</t>
   </si>
@@ -53,6 +45,9 @@
     <t>OPCION_PAGOCUOTAS</t>
   </si>
   <si>
+    <t>silverarrow</t>
+  </si>
+  <si>
     <t>Accidentes Personales</t>
   </si>
   <si>
@@ -95,40 +90,13 @@
     <t>https://ssurgwsoadev4.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
   </si>
   <si>
-    <t>TipoTarjeta</t>
-  </si>
-  <si>
-    <t>NumTarjetaCred</t>
-  </si>
-  <si>
-    <t>FechaVencimiento</t>
-  </si>
-  <si>
-    <t>ConductoPago</t>
-  </si>
-  <si>
-    <t>NumCBU</t>
-  </si>
-  <si>
-    <t>Naranja</t>
-  </si>
-  <si>
-    <t>5895625701430010</t>
-  </si>
-  <si>
-    <t>12/2022</t>
-  </si>
-  <si>
-    <t>SNP</t>
-  </si>
-  <si>
-    <t>1910113455011302255896</t>
-  </si>
-  <si>
-    <t>American Express</t>
-  </si>
-  <si>
-    <t>376714000199465</t>
+    <t>su</t>
+  </si>
+  <si>
+    <t>gw</t>
+  </si>
+  <si>
+    <t>81 ver. 1</t>
   </si>
   <si>
     <t>CantCuotas</t>
@@ -137,38 +105,29 @@
     <t>Tarjeta de Crédito</t>
   </si>
   <si>
+    <t>Débito Bancario</t>
+  </si>
+  <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>2 Cuotas - ARS</t>
-  </si>
-  <si>
-    <t>10 Cuotas - ARS</t>
-  </si>
-  <si>
-    <t>Débito Bancario</t>
-  </si>
-  <si>
-    <t>11 Cuotas - ARS</t>
-  </si>
-  <si>
-    <t>12 Cuotas - ARS</t>
-  </si>
-  <si>
-    <t>81 ver. 1</t>
-  </si>
-  <si>
-    <t>su</t>
-  </si>
-  <si>
-    <t>gw</t>
+    <t>6 Cuotas - ARS</t>
+  </si>
+  <si>
+    <t>81 ver. 2</t>
+  </si>
+  <si>
+    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>i-preproducciongestion.segurossura.com.ar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,20 +144,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -220,36 +167,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -531,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,21 +470,20 @@
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -570,445 +495,214 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
       <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="1">
-        <v>7582677255</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3953632394</v>
       </c>
       <c r="F2">
         <v>2344</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2">
-        <v>25840152</v>
+        <v>16</v>
+      </c>
+      <c r="N2">
+        <v>30990131</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="1">
-        <v>7582677255</v>
-      </c>
-      <c r="F3">
-        <v>2344</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3">
-        <v>24840154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7582677255</v>
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>8965431747</v>
       </c>
       <c r="F4">
         <v>2344</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4">
-        <v>24840156</v>
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4">
+        <v>27990130</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="1">
-        <v>7582677255</v>
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>8965431747</v>
       </c>
       <c r="F5">
         <v>2344</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" t="s">
-        <v>15</v>
-      </c>
-      <c r="S5">
-        <v>24840157</v>
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>26990134</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7582677255</v>
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>8965431747</v>
       </c>
       <c r="F6">
         <v>2344</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
-      </c>
-      <c r="R6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6">
-        <v>24840159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7582677255</v>
-      </c>
-      <c r="F7">
-        <v>2344</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7">
-        <v>24840161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7582677255</v>
-      </c>
-      <c r="F8">
-        <v>2344</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S8">
-        <v>24840163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7582677255</v>
-      </c>
-      <c r="F9">
-        <v>2344</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9">
-        <v>24840165</v>
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>26990138</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{134F7B35-EAF3-46FD-98F7-1163C9C48379}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{96D55192-8F2E-4179-A126-7080B9691458}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{2F3CBF4D-4C98-43B3-BF9D-7C73A6C9DDA3}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{0BDA96E1-12A8-4371-B7B1-5AB5E9CD1FBA}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{E6A98744-40B6-46D7-B617-5AF1FB50A4BD}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{84E0FEDF-A2A6-40F7-98B1-F467FFD48B7C}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{CE4A6E9C-B836-4570-B3BC-A6AE14A10C12}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{5B249856-467E-4B6F-A054-8547B7BA0FDB}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{062FC417-F421-4746-B4C8-637CB1B42B10}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{0CCFDA23-C97C-41DE-8EA0-3F742157B2F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>